--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col1a2-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col1a2-Itgb3.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.5638075</v>
+        <v>21.194154</v>
       </c>
       <c r="H2">
-        <v>41.12761500000001</v>
+        <v>42.38830799999999</v>
       </c>
       <c r="I2">
-        <v>0.02292499933614166</v>
+        <v>0.02540793187283288</v>
       </c>
       <c r="J2">
-        <v>0.01607194290719437</v>
+        <v>0.01757716018274786</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N2">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O2">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P2">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q2">
-        <v>114.1492944382538</v>
+        <v>183.147406108371</v>
       </c>
       <c r="R2">
-        <v>456.5971777530151</v>
+        <v>732.5896244334839</v>
       </c>
       <c r="S2">
-        <v>0.01051780318928843</v>
+        <v>0.008247095911761888</v>
       </c>
       <c r="T2">
-        <v>0.005921095175111041</v>
+        <v>0.004314642411481895</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.5638075</v>
+        <v>21.194154</v>
       </c>
       <c r="H3">
-        <v>41.12761500000001</v>
+        <v>42.38830799999999</v>
       </c>
       <c r="I3">
-        <v>0.02292499933614166</v>
+        <v>0.02540793187283288</v>
       </c>
       <c r="J3">
-        <v>0.01607194290719437</v>
+        <v>0.01757716018274786</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>3.981621</v>
       </c>
       <c r="O3">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P3">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q3">
-        <v>27.2924292606525</v>
+        <v>28.12902954787799</v>
       </c>
       <c r="R3">
-        <v>163.754575563915</v>
+        <v>168.774177287268</v>
       </c>
       <c r="S3">
-        <v>0.002514745281026644</v>
+        <v>0.001266645318737773</v>
       </c>
       <c r="T3">
-        <v>0.002123548884041368</v>
+        <v>0.0009940083765856396</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.5638075</v>
+        <v>21.194154</v>
       </c>
       <c r="H4">
-        <v>41.12761500000001</v>
+        <v>42.38830799999999</v>
       </c>
       <c r="I4">
-        <v>0.02292499933614166</v>
+        <v>0.02540793187283288</v>
       </c>
       <c r="J4">
-        <v>0.01607194290719437</v>
+        <v>0.01757716018274786</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N4">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O4">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P4">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q4">
-        <v>5.146791996330001</v>
+        <v>11.87282377644</v>
       </c>
       <c r="R4">
-        <v>30.88075197798</v>
+        <v>71.23694265863999</v>
       </c>
       <c r="S4">
-        <v>0.0004742293462259261</v>
+        <v>0.0005346311941202658</v>
       </c>
       <c r="T4">
-        <v>0.0004004577348472468</v>
+        <v>0.0004195554015619001</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.5638075</v>
+        <v>21.194154</v>
       </c>
       <c r="H5">
-        <v>41.12761500000001</v>
+        <v>42.38830799999999</v>
       </c>
       <c r="I5">
-        <v>0.02292499933614166</v>
+        <v>0.02540793187283288</v>
       </c>
       <c r="J5">
-        <v>0.01607194290719437</v>
+        <v>0.01757716018274786</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N5">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O5">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P5">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q5">
-        <v>12.5800120571625</v>
+        <v>17.366521578831</v>
       </c>
       <c r="R5">
-        <v>50.32004822865001</v>
+        <v>69.46608631532399</v>
       </c>
       <c r="S5">
-        <v>0.001159131920939578</v>
+        <v>0.0007820114527287074</v>
       </c>
       <c r="T5">
-        <v>0.0006525441007854477</v>
+        <v>0.0004091258082006489</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.5638075</v>
+        <v>21.194154</v>
       </c>
       <c r="H6">
-        <v>41.12761500000001</v>
+        <v>42.38830799999999</v>
       </c>
       <c r="I6">
-        <v>0.02292499933614166</v>
+        <v>0.02540793187283288</v>
       </c>
       <c r="J6">
-        <v>0.01607194290719437</v>
+        <v>0.01757716018274786</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N6">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O6">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P6">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q6">
-        <v>82.29387624889503</v>
+        <v>320.313317994762</v>
       </c>
       <c r="R6">
-        <v>493.7632574933701</v>
+        <v>1921.879907968572</v>
       </c>
       <c r="S6">
-        <v>0.007582620622659506</v>
+        <v>0.01442365311881284</v>
       </c>
       <c r="T6">
-        <v>0.006403060255384591</v>
+        <v>0.01131905815224799</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>20.5638075</v>
+        <v>21.194154</v>
       </c>
       <c r="H7">
-        <v>41.12761500000001</v>
+        <v>42.38830799999999</v>
       </c>
       <c r="I7">
-        <v>0.02292499933614166</v>
+        <v>0.02540793187283288</v>
       </c>
       <c r="J7">
-        <v>0.01607194290719437</v>
+        <v>0.01757716018274786</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N7">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O7">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P7">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q7">
-        <v>7.341690553650002</v>
+        <v>3.417620914962</v>
       </c>
       <c r="R7">
-        <v>44.05014332190001</v>
+        <v>20.505725489772</v>
       </c>
       <c r="S7">
-        <v>0.0006764689760015829</v>
+        <v>0.0001538948766714026</v>
       </c>
       <c r="T7">
-        <v>0.0005712367570246763</v>
+        <v>0.0001207700326697826</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>2228.764953</v>
       </c>
       <c r="I8">
-        <v>0.828225918569811</v>
+        <v>0.890627797432279</v>
       </c>
       <c r="J8">
-        <v>0.8709618361816444</v>
+        <v>0.9242019895810776</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N8">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O8">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P8">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q8">
-        <v>4123.943597728806</v>
+        <v>6419.891698550387</v>
       </c>
       <c r="R8">
-        <v>24743.66158637283</v>
+        <v>38519.35019130232</v>
       </c>
       <c r="S8">
-        <v>0.3799833134150484</v>
+        <v>0.2890866090112157</v>
       </c>
       <c r="T8">
-        <v>0.3208727131311865</v>
+        <v>0.2268626478659694</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>2228.764953</v>
       </c>
       <c r="I9">
-        <v>0.828225918569811</v>
+        <v>0.890627797432279</v>
       </c>
       <c r="J9">
-        <v>0.8709618361816444</v>
+        <v>0.9242019895810776</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>3.981621</v>
       </c>
       <c r="O9">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P9">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q9">
         <v>986.0108156587569</v>
@@ -1013,10 +1013,10 @@
         <v>8874.097340928811</v>
       </c>
       <c r="S9">
-        <v>0.09085178977797634</v>
+        <v>0.04439989590658291</v>
       </c>
       <c r="T9">
-        <v>0.1150781860006631</v>
+        <v>0.05226467243567493</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>2228.764953</v>
       </c>
       <c r="I10">
-        <v>0.828225918569811</v>
+        <v>0.890627797432279</v>
       </c>
       <c r="J10">
-        <v>0.8709618361816444</v>
+        <v>0.9242019895810776</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N10">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O10">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P10">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q10">
-        <v>185.941402498884</v>
+        <v>416.1797560791933</v>
       </c>
       <c r="R10">
-        <v>1673.472622489956</v>
+        <v>3745.61780471274</v>
       </c>
       <c r="S10">
-        <v>0.01713278286867914</v>
+        <v>0.01874050218810005</v>
       </c>
       <c r="T10">
-        <v>0.02170138396270512</v>
+        <v>0.02206010145163153</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>2228.764953</v>
       </c>
       <c r="I11">
-        <v>0.828225918569811</v>
+        <v>0.890627797432279</v>
       </c>
       <c r="J11">
-        <v>0.8709618361816444</v>
+        <v>0.9242019895810776</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N11">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O11">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P11">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q11">
-        <v>454.486034607505</v>
+        <v>608.7511152118765</v>
       </c>
       <c r="R11">
-        <v>2726.91620764503</v>
+        <v>3652.506691271259</v>
       </c>
       <c r="S11">
-        <v>0.04187669041500379</v>
+        <v>0.02741195706901629</v>
       </c>
       <c r="T11">
-        <v>0.03536230880680791</v>
+        <v>0.02151171645458003</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>2228.764953</v>
       </c>
       <c r="I12">
-        <v>0.828225918569811</v>
+        <v>0.890627797432279</v>
       </c>
       <c r="J12">
-        <v>0.8709618361816444</v>
+        <v>0.9242019895810776</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N12">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O12">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P12">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q12">
-        <v>2973.08280142278</v>
+        <v>11227.98763479574</v>
       </c>
       <c r="R12">
-        <v>26757.74521280501</v>
+        <v>101051.8887131616</v>
       </c>
       <c r="S12">
-        <v>0.2739421204897414</v>
+        <v>0.5055943345735686</v>
       </c>
       <c r="T12">
-        <v>0.3469910980529361</v>
+        <v>0.5951527980475009</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>2228.764953</v>
       </c>
       <c r="I13">
-        <v>0.828225918569811</v>
+        <v>0.890627797432279</v>
       </c>
       <c r="J13">
-        <v>0.8709618361816444</v>
+        <v>0.9242019895810776</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N13">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O13">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P13">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q13">
-        <v>265.2378878400201</v>
+        <v>119.798344988703</v>
       </c>
       <c r="R13">
-        <v>2387.14099056018</v>
+        <v>1078.185104898327</v>
       </c>
       <c r="S13">
-        <v>0.02443922160336189</v>
+        <v>0.005394498683795532</v>
       </c>
       <c r="T13">
-        <v>0.03095614622734566</v>
+        <v>0.006350053325720775</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.631401</v>
+        <v>0.05889633333333333</v>
       </c>
       <c r="H14">
-        <v>1.894203</v>
+        <v>0.176689</v>
       </c>
       <c r="I14">
-        <v>0.0007039001656594569</v>
+        <v>7.060598054034096E-05</v>
       </c>
       <c r="J14">
-        <v>0.0007402209554489433</v>
+        <v>7.326762973246153E-05</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N14">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O14">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P14">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q14">
-        <v>3.5048946386805</v>
+        <v>0.5089474521745</v>
       </c>
       <c r="R14">
-        <v>21.029367832083</v>
+        <v>3.053684713047</v>
       </c>
       <c r="S14">
-        <v>0.000322943669430863</v>
+        <v>2.291781544340476E-05</v>
       </c>
       <c r="T14">
-        <v>0.0002727062156164625</v>
+        <v>1.798490878763843E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.631401</v>
+        <v>0.05889633333333333</v>
       </c>
       <c r="H15">
-        <v>1.894203</v>
+        <v>0.176689</v>
       </c>
       <c r="I15">
-        <v>0.0007039001656594569</v>
+        <v>7.060598054034096E-05</v>
       </c>
       <c r="J15">
-        <v>0.0007402209554489433</v>
+        <v>7.326762973246153E-05</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>3.981621</v>
       </c>
       <c r="O15">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P15">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q15">
-        <v>0.8379998270069998</v>
+        <v>0.07816762587433332</v>
       </c>
       <c r="R15">
-        <v>7.541998443062999</v>
+        <v>0.7035086328689999</v>
       </c>
       <c r="S15">
-        <v>7.72139442165807E-05</v>
+        <v>3.519874627101706E-06</v>
       </c>
       <c r="T15">
-        <v>9.78036938635467E-05</v>
+        <v>4.143367695887746E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.631401</v>
+        <v>0.05889633333333333</v>
       </c>
       <c r="H16">
-        <v>1.894203</v>
+        <v>0.176689</v>
       </c>
       <c r="I16">
-        <v>0.0007039001656594569</v>
+        <v>7.060598054034096E-05</v>
       </c>
       <c r="J16">
-        <v>0.0007402209554489433</v>
+        <v>7.326762973246153E-05</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N16">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O16">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P16">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q16">
-        <v>0.158029567884</v>
+        <v>0.03299333329111111</v>
       </c>
       <c r="R16">
-        <v>1.422266110956</v>
+        <v>0.29693999962</v>
       </c>
       <c r="S16">
-        <v>1.456096510514388E-05</v>
+        <v>1.4856840720939E-06</v>
       </c>
       <c r="T16">
-        <v>1.844376929517696E-05</v>
+        <v>1.748850752584193E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.631401</v>
+        <v>0.05889633333333333</v>
       </c>
       <c r="H17">
-        <v>1.894203</v>
+        <v>0.176689</v>
       </c>
       <c r="I17">
-        <v>0.0007039001656594569</v>
+        <v>7.060598054034096E-05</v>
       </c>
       <c r="J17">
-        <v>0.0007402209554489433</v>
+        <v>7.326762973246153E-05</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N17">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O17">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P17">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q17">
-        <v>0.386262718755</v>
+        <v>0.04825974387783333</v>
       </c>
       <c r="R17">
-        <v>2.31757631253</v>
+        <v>0.289558463267</v>
       </c>
       <c r="S17">
-        <v>3.559054197590455E-05</v>
+        <v>2.173127891322966E-06</v>
       </c>
       <c r="T17">
-        <v>3.005404017082189E-05</v>
+        <v>1.70537663180999E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.631401</v>
+        <v>0.05889633333333333</v>
       </c>
       <c r="H18">
-        <v>1.894203</v>
+        <v>0.176689</v>
       </c>
       <c r="I18">
-        <v>0.0007039001656594569</v>
+        <v>7.060598054034096E-05</v>
       </c>
       <c r="J18">
-        <v>0.0007402209554489433</v>
+        <v>7.326762973246153E-05</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N18">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O18">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P18">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q18">
-        <v>2.526790612946</v>
+        <v>0.8901171496501111</v>
       </c>
       <c r="R18">
-        <v>22.741115516514</v>
+        <v>8.011054346851001</v>
       </c>
       <c r="S18">
-        <v>0.0002328204173165808</v>
+        <v>4.008182076859374E-05</v>
       </c>
       <c r="T18">
-        <v>0.0002949039458021151</v>
+        <v>4.71817149640072E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.631401</v>
+        <v>0.05889633333333333</v>
       </c>
       <c r="H19">
-        <v>1.894203</v>
+        <v>0.176689</v>
       </c>
       <c r="I19">
-        <v>0.0007039001656594569</v>
+        <v>7.060598054034096E-05</v>
       </c>
       <c r="J19">
-        <v>0.0007402209554489433</v>
+        <v>7.326762973246153E-05</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N19">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O19">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P19">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q19">
-        <v>0.22542278502</v>
+        <v>0.009497210439</v>
       </c>
       <c r="R19">
-        <v>2.02880506518</v>
+        <v>0.085474893951</v>
       </c>
       <c r="S19">
-        <v>2.077062761438393E-05</v>
+        <v>4.2765773782389E-07</v>
       </c>
       <c r="T19">
-        <v>2.630929070082018E-05</v>
+        <v>5.034109005339685E-07</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>111.4773615</v>
+        <v>69.71480750000001</v>
       </c>
       <c r="H20">
-        <v>222.954723</v>
+        <v>139.429615</v>
       </c>
       <c r="I20">
-        <v>0.1242774927932157</v>
+        <v>0.08357536137029385</v>
       </c>
       <c r="J20">
-        <v>0.08712675361664748</v>
+        <v>0.05781728011115387</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N20">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O20">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P20">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q20">
-        <v>618.8086598779508</v>
+        <v>602.4343392507864</v>
       </c>
       <c r="R20">
-        <v>2475.234639511803</v>
+        <v>2409.737357003145</v>
       </c>
       <c r="S20">
-        <v>0.05701750263506206</v>
+        <v>0.02712751374376713</v>
       </c>
       <c r="T20">
-        <v>0.03209853366463187</v>
+        <v>0.01419233176977935</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>111.4773615</v>
+        <v>69.71480750000001</v>
       </c>
       <c r="H21">
-        <v>222.954723</v>
+        <v>139.429615</v>
       </c>
       <c r="I21">
-        <v>0.1242774927932157</v>
+        <v>0.08357536137029385</v>
       </c>
       <c r="J21">
-        <v>0.08712675361664748</v>
+        <v>0.05781728011115387</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>3.981621</v>
       </c>
       <c r="O21">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P21">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q21">
-        <v>147.9535345243305</v>
+        <v>92.5259805176525</v>
       </c>
       <c r="R21">
-        <v>887.7212071459829</v>
+        <v>555.155883105915</v>
       </c>
       <c r="S21">
-        <v>0.0136325516942048</v>
+        <v>0.004166428844792768</v>
       </c>
       <c r="T21">
-        <v>0.01151185774371799</v>
+        <v>0.003269632872680617</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>111.4773615</v>
+        <v>69.71480750000001</v>
       </c>
       <c r="H22">
-        <v>222.954723</v>
+        <v>139.429615</v>
       </c>
       <c r="I22">
-        <v>0.1242774927932157</v>
+        <v>0.08357536137029385</v>
       </c>
       <c r="J22">
-        <v>0.08712675361664748</v>
+        <v>0.05781728011115387</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N22">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O22">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P22">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q22">
-        <v>27.900999945666</v>
+        <v>39.05377039611667</v>
       </c>
       <c r="R22">
-        <v>167.405999673996</v>
+        <v>234.3226223767</v>
       </c>
       <c r="S22">
-        <v>0.002570819448836808</v>
+        <v>0.001758584503141266</v>
       </c>
       <c r="T22">
-        <v>0.002170900095861998</v>
+        <v>0.001380060938288599</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>111.4773615</v>
+        <v>69.71480750000001</v>
       </c>
       <c r="H23">
-        <v>222.954723</v>
+        <v>139.429615</v>
       </c>
       <c r="I23">
-        <v>0.1242774927932157</v>
+        <v>0.08357536137029385</v>
       </c>
       <c r="J23">
-        <v>0.08712675361664748</v>
+        <v>0.05781728011115387</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N23">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O23">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P23">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q23">
-        <v>68.1968332844325</v>
+        <v>57.12441783771126</v>
       </c>
       <c r="R23">
-        <v>272.78733313773</v>
+        <v>228.497671350845</v>
       </c>
       <c r="S23">
-        <v>0.006283708315046754</v>
+        <v>0.002572302621268922</v>
       </c>
       <c r="T23">
-        <v>0.003537472066782953</v>
+        <v>0.001345754445399904</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>111.4773615</v>
+        <v>69.71480750000001</v>
       </c>
       <c r="H24">
-        <v>222.954723</v>
+        <v>139.429615</v>
       </c>
       <c r="I24">
-        <v>0.1242774927932157</v>
+        <v>0.08357536137029385</v>
       </c>
       <c r="J24">
-        <v>0.08712675361664748</v>
+        <v>0.05781728011115387</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N24">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O24">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P24">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q24">
-        <v>446.1189491213791</v>
+        <v>1053.619847420714</v>
       </c>
       <c r="R24">
-        <v>2676.713694728274</v>
+        <v>6321.719084524286</v>
       </c>
       <c r="S24">
-        <v>0.04110574076661478</v>
+        <v>0.04744431887325213</v>
       </c>
       <c r="T24">
-        <v>0.03471128888926773</v>
+        <v>0.03723224622059813</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>111.4773615</v>
+        <v>69.71480750000001</v>
       </c>
       <c r="H25">
-        <v>222.954723</v>
+        <v>139.429615</v>
       </c>
       <c r="I25">
-        <v>0.1242774927932157</v>
+        <v>0.08357536137029385</v>
       </c>
       <c r="J25">
-        <v>0.08712675361664748</v>
+        <v>0.05781728011115387</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N25">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O25">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P25">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q25">
-        <v>39.79964760273</v>
+        <v>11.2417218537975</v>
       </c>
       <c r="R25">
-        <v>238.79788561638</v>
+        <v>67.45033112278502</v>
       </c>
       <c r="S25">
-        <v>0.00366716993345047</v>
+        <v>0.0005062127840716395</v>
       </c>
       <c r="T25">
-        <v>0.00309670115638495</v>
+        <v>0.000397253864407261</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>20.33651533333333</v>
+        <v>0.1138996666666667</v>
       </c>
       <c r="H26">
-        <v>61.009546</v>
+        <v>0.341699</v>
       </c>
       <c r="I26">
-        <v>0.02267160886990901</v>
+        <v>0.0001365449628706596</v>
       </c>
       <c r="J26">
-        <v>0.02384144911164551</v>
+        <v>0.000141692328395952</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N26">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O26">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P26">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q26">
-        <v>112.8876000532843</v>
+        <v>0.9842538893795</v>
       </c>
       <c r="R26">
-        <v>677.325600319706</v>
+        <v>5.905523336277</v>
       </c>
       <c r="S26">
-        <v>0.01040154970483683</v>
+        <v>4.432078182114315E-05</v>
       </c>
       <c r="T26">
-        <v>0.008783473791424936</v>
+        <v>3.478102964999103E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>20.33651533333333</v>
+        <v>0.1138996666666667</v>
       </c>
       <c r="H27">
-        <v>61.009546</v>
+        <v>0.341699</v>
       </c>
       <c r="I27">
-        <v>0.02267160886990901</v>
+        <v>0.0001365449628706596</v>
       </c>
       <c r="J27">
-        <v>0.02384144911164551</v>
+        <v>0.000141692328395952</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>3.981621</v>
       </c>
       <c r="O27">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P27">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q27">
-        <v>26.99076550600733</v>
+        <v>0.1511684348976666</v>
       </c>
       <c r="R27">
-        <v>242.916889554066</v>
+        <v>1.360515914079</v>
       </c>
       <c r="S27">
-        <v>0.002486949752229785</v>
+        <v>6.807088388105801E-06</v>
       </c>
       <c r="T27">
-        <v>0.003150115885012309</v>
+        <v>8.012862138090921E-06</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>20.33651533333333</v>
+        <v>0.1138996666666667</v>
       </c>
       <c r="H28">
-        <v>61.009546</v>
+        <v>0.341699</v>
       </c>
       <c r="I28">
-        <v>0.02267160886990901</v>
+        <v>0.0001365449628706596</v>
       </c>
       <c r="J28">
-        <v>0.02384144911164551</v>
+        <v>0.000141692328395952</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N28">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O28">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P28">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q28">
-        <v>5.089904403688</v>
+        <v>0.06380583393555556</v>
       </c>
       <c r="R28">
-        <v>45.809139633192</v>
+        <v>0.5742525054199999</v>
       </c>
       <c r="S28">
-        <v>0.0004689876799829112</v>
+        <v>2.873165628592689E-06</v>
       </c>
       <c r="T28">
-        <v>0.0005940472015024189</v>
+        <v>3.382103884833047E-06</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>20.33651533333333</v>
+        <v>0.1138996666666667</v>
       </c>
       <c r="H29">
-        <v>61.009546</v>
+        <v>0.341699</v>
       </c>
       <c r="I29">
-        <v>0.02267160886990901</v>
+        <v>0.0001365449628706596</v>
       </c>
       <c r="J29">
-        <v>0.02384144911164551</v>
+        <v>0.000141692328395952</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N29">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O29">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P29">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q29">
-        <v>12.44096493774333</v>
+        <v>0.09332955771616666</v>
       </c>
       <c r="R29">
-        <v>74.64578962646</v>
+        <v>0.5599773462969999</v>
       </c>
       <c r="S29">
-        <v>0.00114632001313686</v>
+        <v>4.20261378658075E-06</v>
       </c>
       <c r="T29">
-        <v>0.0009679972771068393</v>
+        <v>3.298029247507438E-06</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>20.33651533333333</v>
+        <v>0.1138996666666667</v>
       </c>
       <c r="H30">
-        <v>61.009546</v>
+        <v>0.341699</v>
       </c>
       <c r="I30">
-        <v>0.02267160886990901</v>
+        <v>0.0001365449628706596</v>
       </c>
       <c r="J30">
-        <v>0.02384144911164551</v>
+        <v>0.000141692328395952</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N30">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O30">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P30">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q30">
-        <v>81.38428042448314</v>
+        <v>1.721398275604556</v>
       </c>
       <c r="R30">
-        <v>732.4585238203481</v>
+        <v>15.492584480441</v>
       </c>
       <c r="S30">
-        <v>0.007498809768549167</v>
+        <v>7.751426560118464E-05</v>
       </c>
       <c r="T30">
-        <v>0.00949843065764105</v>
+        <v>9.12447567278455E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>20.33651533333333</v>
+        <v>0.1138996666666667</v>
       </c>
       <c r="H31">
-        <v>61.009546</v>
+        <v>0.341699</v>
       </c>
       <c r="I31">
-        <v>0.02267160886990901</v>
+        <v>0.0001365449628706596</v>
       </c>
       <c r="J31">
-        <v>0.02384144911164551</v>
+        <v>0.000141692328395952</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N31">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O31">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P31">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q31">
-        <v>7.260542704306668</v>
+        <v>0.018366662949</v>
       </c>
       <c r="R31">
-        <v>65.34488433876001</v>
+        <v>0.165299966541</v>
       </c>
       <c r="S31">
-        <v>0.0006689919511734629</v>
+        <v>8.270476450525239E-07</v>
       </c>
       <c r="T31">
-        <v>0.0008473842989579582</v>
+        <v>9.735467476841031E-07</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>1.072888333333333</v>
+        <v>0.1516146666666666</v>
       </c>
       <c r="H32">
-        <v>3.218665</v>
+        <v>0.454844</v>
       </c>
       <c r="I32">
-        <v>0.001196080265263172</v>
+        <v>0.0001817583811832703</v>
       </c>
       <c r="J32">
-        <v>0.001257797227419698</v>
+        <v>0.0001886101668922895</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N32">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O32">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P32">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q32">
-        <v>5.955582217010835</v>
+        <v>1.310164724102</v>
       </c>
       <c r="R32">
-        <v>35.73349330206501</v>
+        <v>7.860988344612</v>
       </c>
       <c r="S32">
-        <v>0.0005487518950021136</v>
+        <v>5.8996490146755E-05</v>
       </c>
       <c r="T32">
-        <v>0.0004633874782624467</v>
+        <v>4.629788980980489E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>1.072888333333333</v>
+        <v>0.1516146666666666</v>
       </c>
       <c r="H33">
-        <v>3.218665</v>
+        <v>0.454844</v>
       </c>
       <c r="I33">
-        <v>0.001196080265263172</v>
+        <v>0.0001817583811832703</v>
       </c>
       <c r="J33">
-        <v>0.001257797227419698</v>
+        <v>0.0001886101668922895</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>3.981621</v>
       </c>
       <c r="O33">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P33">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q33">
-        <v>1.423944906218333</v>
+        <v>0.2012240469026666</v>
       </c>
       <c r="R33">
-        <v>12.815504155965</v>
+        <v>1.811016422124</v>
       </c>
       <c r="S33">
-        <v>0.0001312033714242142</v>
+        <v>9.061083909521524E-06</v>
       </c>
       <c r="T33">
-        <v>0.0001661898573222155</v>
+        <v>1.066611920531762E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>1.072888333333333</v>
+        <v>0.1516146666666666</v>
       </c>
       <c r="H34">
-        <v>3.218665</v>
+        <v>0.454844</v>
       </c>
       <c r="I34">
-        <v>0.001196080265263172</v>
+        <v>0.0001817583811832703</v>
       </c>
       <c r="J34">
-        <v>0.001257797227419698</v>
+        <v>0.0001886101668922895</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N34">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O34">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P34">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q34">
-        <v>0.26852678362</v>
+        <v>0.0849335255022222</v>
       </c>
       <c r="R34">
-        <v>2.41674105258</v>
+        <v>0.76440172952</v>
       </c>
       <c r="S34">
-        <v>2.474226297294848E-05</v>
+        <v>3.824541913121234E-06</v>
       </c>
       <c r="T34">
-        <v>3.133999613476526E-05</v>
+        <v>4.502002228256455E-06</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>1.072888333333333</v>
+        <v>0.1516146666666666</v>
       </c>
       <c r="H35">
-        <v>3.218665</v>
+        <v>0.454844</v>
       </c>
       <c r="I35">
-        <v>0.001196080265263172</v>
+        <v>0.0001817583811832703</v>
       </c>
       <c r="J35">
-        <v>0.001257797227419698</v>
+        <v>0.0001886101668922895</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N35">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O35">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P35">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q35">
-        <v>0.6563448023583335</v>
+        <v>0.1242332852886666</v>
       </c>
       <c r="R35">
-        <v>3.938068814150001</v>
+        <v>0.7453997117319999</v>
       </c>
       <c r="S35">
-        <v>6.047611147742603E-05</v>
+        <v>5.594203275817414E-06</v>
       </c>
       <c r="T35">
-        <v>5.106838454295472E-05</v>
+        <v>4.390088396668628E-06</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>1.072888333333333</v>
+        <v>0.1516146666666666</v>
       </c>
       <c r="H36">
-        <v>3.218665</v>
+        <v>0.454844</v>
       </c>
       <c r="I36">
-        <v>0.001196080265263172</v>
+        <v>0.0001817583811832703</v>
       </c>
       <c r="J36">
-        <v>0.001257797227419698</v>
+        <v>0.0001886101668922895</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N36">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O36">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P36">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q36">
-        <v>4.293569648141112</v>
+        <v>2.291395869666222</v>
       </c>
       <c r="R36">
-        <v>38.64212683327001</v>
+        <v>20.622562826996</v>
       </c>
       <c r="S36">
-        <v>0.0003956127872790153</v>
+        <v>0.0001031811583384945</v>
       </c>
       <c r="T36">
-        <v>0.0005011062746258796</v>
+        <v>0.0001214581550695792</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>1.072888333333333</v>
+        <v>0.1516146666666666</v>
       </c>
       <c r="H37">
-        <v>3.218665</v>
+        <v>0.454844</v>
       </c>
       <c r="I37">
-        <v>0.001196080265263172</v>
+        <v>0.0001817583811832703</v>
       </c>
       <c r="J37">
-        <v>0.001257797227419698</v>
+        <v>0.0001886101668922895</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N37">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O37">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P37">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q37">
-        <v>0.3830425927666667</v>
+        <v>0.024448319844</v>
       </c>
       <c r="R37">
-        <v>3.4473833349</v>
+        <v>0.220034878596</v>
       </c>
       <c r="S37">
-        <v>3.52938371074542E-05</v>
+        <v>1.100903599560637E-06</v>
       </c>
       <c r="T37">
-        <v>4.470523653143586E-05</v>
+        <v>1.295912182662601E-06</v>
       </c>
     </row>
   </sheetData>
